--- a/natmiOut/OldD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.0373437932125</v>
+        <v>16.480023</v>
       </c>
       <c r="H2">
-        <v>15.0373437932125</v>
+        <v>49.44006899999999</v>
       </c>
       <c r="I2">
-        <v>0.1005171777314531</v>
+        <v>0.09611448044481742</v>
       </c>
       <c r="J2">
-        <v>0.1005171777314531</v>
+        <v>0.1006165103220765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N2">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O2">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P2">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q2">
-        <v>5.266447622326159</v>
+        <v>10.786652974167</v>
       </c>
       <c r="R2">
-        <v>5.266447622326159</v>
+        <v>97.07987676750298</v>
       </c>
       <c r="S2">
-        <v>9.750404506943567E-05</v>
+        <v>0.0001572918126435825</v>
       </c>
       <c r="T2">
-        <v>9.750404506943567E-05</v>
+        <v>0.0001652098187432932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.0373437932125</v>
+        <v>16.480023</v>
       </c>
       <c r="H3">
-        <v>15.0373437932125</v>
+        <v>49.44006899999999</v>
       </c>
       <c r="I3">
-        <v>0.1005171777314531</v>
+        <v>0.09611448044481742</v>
       </c>
       <c r="J3">
-        <v>0.1005171777314531</v>
+        <v>0.1006165103220765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N3">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O3">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P3">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q3">
-        <v>37.56267724431779</v>
+        <v>43.274540821876</v>
       </c>
       <c r="R3">
-        <v>37.56267724431779</v>
+        <v>389.470867396884</v>
       </c>
       <c r="S3">
-        <v>0.0006954427799551373</v>
+        <v>0.0006310327201118876</v>
       </c>
       <c r="T3">
-        <v>0.0006954427799551373</v>
+        <v>0.0006627986514911949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.0373437932125</v>
+        <v>16.480023</v>
       </c>
       <c r="H4">
-        <v>15.0373437932125</v>
+        <v>49.44006899999999</v>
       </c>
       <c r="I4">
-        <v>0.1005171777314531</v>
+        <v>0.09611448044481742</v>
       </c>
       <c r="J4">
-        <v>0.1005171777314531</v>
+        <v>0.1006165103220765</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N4">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O4">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P4">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q4">
-        <v>2438.228080959527</v>
+        <v>3238.208467178033</v>
       </c>
       <c r="R4">
-        <v>2438.228080959527</v>
+        <v>29143.8762046023</v>
       </c>
       <c r="S4">
-        <v>0.04514183330858502</v>
+        <v>0.04721980773276559</v>
       </c>
       <c r="T4">
-        <v>0.04514183330858502</v>
+        <v>0.04959683371632656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.0373437932125</v>
+        <v>16.480023</v>
       </c>
       <c r="H5">
-        <v>15.0373437932125</v>
+        <v>49.44006899999999</v>
       </c>
       <c r="I5">
-        <v>0.1005171777314531</v>
+        <v>0.09611448044481742</v>
       </c>
       <c r="J5">
-        <v>0.1005171777314531</v>
+        <v>0.1006165103220765</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N5">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O5">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P5">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q5">
-        <v>2899.39781880458</v>
+        <v>3233.126648832367</v>
       </c>
       <c r="R5">
-        <v>2899.39781880458</v>
+        <v>29098.1398394913</v>
       </c>
       <c r="S5">
-        <v>0.05368002036144375</v>
+        <v>0.04714570426239071</v>
       </c>
       <c r="T5">
-        <v>0.05368002036144375</v>
+        <v>0.0495189999072864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.0373437932125</v>
+        <v>16.480023</v>
       </c>
       <c r="H6">
-        <v>15.0373437932125</v>
+        <v>49.44006899999999</v>
       </c>
       <c r="I6">
-        <v>0.1005171777314531</v>
+        <v>0.09611448044481742</v>
       </c>
       <c r="J6">
-        <v>0.1005171777314531</v>
+        <v>0.1006165103220765</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N6">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O6">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P6">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q6">
-        <v>48.73974661968366</v>
+        <v>65.87839754180999</v>
       </c>
       <c r="R6">
-        <v>48.73974661968366</v>
+        <v>395.2703852508599</v>
       </c>
       <c r="S6">
-        <v>0.0009023772363997114</v>
+        <v>0.0009606439169056555</v>
       </c>
       <c r="T6">
-        <v>0.0009023772363997114</v>
+        <v>0.0006726682282290035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>108.441252713305</v>
+        <v>117.951519</v>
       </c>
       <c r="H7">
-        <v>108.441252713305</v>
+        <v>353.854557</v>
       </c>
       <c r="I7">
-        <v>0.7248759370205257</v>
+        <v>0.6879146325440209</v>
       </c>
       <c r="J7">
-        <v>0.7248759370205257</v>
+        <v>0.7201367515669184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N7">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O7">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P7">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q7">
-        <v>37.97879368641131</v>
+        <v>77.20268977955101</v>
       </c>
       <c r="R7">
-        <v>37.97879368641131</v>
+        <v>694.824208015959</v>
       </c>
       <c r="S7">
-        <v>0.00070314684144661</v>
+        <v>0.001125775627107679</v>
       </c>
       <c r="T7">
-        <v>0.00070314684144661</v>
+        <v>0.0011824467159109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>108.441252713305</v>
+        <v>117.951519</v>
       </c>
       <c r="H8">
-        <v>108.441252713305</v>
+        <v>353.854557</v>
       </c>
       <c r="I8">
-        <v>0.7248759370205257</v>
+        <v>0.6879146325440209</v>
       </c>
       <c r="J8">
-        <v>0.7248759370205257</v>
+        <v>0.7201367515669184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N8">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O8">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P8">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q8">
-        <v>270.8818679451877</v>
+        <v>309.726377443028</v>
       </c>
       <c r="R8">
-        <v>270.8818679451877</v>
+        <v>2787.537396987252</v>
       </c>
       <c r="S8">
-        <v>0.005015160076528862</v>
+        <v>0.004516454126059108</v>
       </c>
       <c r="T8">
-        <v>0.005015160076528862</v>
+        <v>0.004743810596292133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>108.441252713305</v>
+        <v>117.951519</v>
       </c>
       <c r="H9">
-        <v>108.441252713305</v>
+        <v>353.854557</v>
       </c>
       <c r="I9">
-        <v>0.7248759370205257</v>
+        <v>0.6879146325440209</v>
       </c>
       <c r="J9">
-        <v>0.7248759370205257</v>
+        <v>0.7201367515669184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N9">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O9">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P9">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q9">
-        <v>17583.19229353224</v>
+        <v>23176.6428689032</v>
       </c>
       <c r="R9">
-        <v>17583.19229353224</v>
+        <v>208589.7858201288</v>
       </c>
       <c r="S9">
-        <v>0.3255386736564307</v>
+        <v>0.3379636089687282</v>
       </c>
       <c r="T9">
-        <v>0.3255386736564307</v>
+        <v>0.3549765600710105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>108.441252713305</v>
+        <v>117.951519</v>
       </c>
       <c r="H10">
-        <v>108.441252713305</v>
+        <v>353.854557</v>
       </c>
       <c r="I10">
-        <v>0.7248759370205257</v>
+        <v>0.6879146325440209</v>
       </c>
       <c r="J10">
-        <v>0.7248759370205257</v>
+        <v>0.7201367515669184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N10">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O10">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P10">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q10">
-        <v>20908.90092752365</v>
+        <v>23140.27106328416</v>
       </c>
       <c r="R10">
-        <v>20908.90092752365</v>
+        <v>208262.4395695574</v>
       </c>
       <c r="S10">
-        <v>0.3871114961339249</v>
+        <v>0.3374332324702314</v>
       </c>
       <c r="T10">
-        <v>0.3871114961339249</v>
+        <v>0.3544194846345355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>108.441252713305</v>
+        <v>117.951519</v>
       </c>
       <c r="H11">
-        <v>108.441252713305</v>
+        <v>353.854557</v>
       </c>
       <c r="I11">
-        <v>0.7248759370205257</v>
+        <v>0.6879146325440209</v>
       </c>
       <c r="J11">
-        <v>0.7248759370205257</v>
+        <v>0.7201367515669184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N11">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O11">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P11">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q11">
-        <v>351.4848934127098</v>
+        <v>471.50765865693</v>
       </c>
       <c r="R11">
-        <v>351.4848934127098</v>
+        <v>2829.04595194158</v>
       </c>
       <c r="S11">
-        <v>0.006507460312194516</v>
+        <v>0.006875561351894465</v>
       </c>
       <c r="T11">
-        <v>0.006507460312194516</v>
+        <v>0.004814449549169297</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.98627502478317</v>
+        <v>3.592017333333333</v>
       </c>
       <c r="H12">
-        <v>2.98627502478317</v>
+        <v>10.776052</v>
       </c>
       <c r="I12">
-        <v>0.01996176595740398</v>
+        <v>0.02094929598958156</v>
       </c>
       <c r="J12">
-        <v>0.01996176595740398</v>
+        <v>0.02193056703236464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N12">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O12">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P12">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q12">
-        <v>1.045866957632513</v>
+        <v>2.351079513169333</v>
       </c>
       <c r="R12">
-        <v>1.045866957632513</v>
+        <v>21.159715618524</v>
       </c>
       <c r="S12">
-        <v>1.936338615451602E-05</v>
+        <v>3.42836243254738E-05</v>
       </c>
       <c r="T12">
-        <v>1.936338615451602E-05</v>
+        <v>3.600944807921489E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.98627502478317</v>
+        <v>3.592017333333333</v>
       </c>
       <c r="H13">
-        <v>2.98627502478317</v>
+        <v>10.776052</v>
       </c>
       <c r="I13">
-        <v>0.01996176595740398</v>
+        <v>0.02094929598958156</v>
       </c>
       <c r="J13">
-        <v>0.01996176595740398</v>
+        <v>0.02193056703236464</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N13">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O13">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P13">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q13">
-        <v>7.459594357969611</v>
+        <v>9.432201685896889</v>
       </c>
       <c r="R13">
-        <v>7.459594357969611</v>
+        <v>84.88981517307201</v>
       </c>
       <c r="S13">
-        <v>0.0001381083942420213</v>
+        <v>0.0001375410986102618</v>
       </c>
       <c r="T13">
-        <v>0.0001381083942420213</v>
+        <v>0.000144464861770298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.98627502478317</v>
+        <v>3.592017333333333</v>
       </c>
       <c r="H14">
-        <v>2.98627502478317</v>
+        <v>10.776052</v>
       </c>
       <c r="I14">
-        <v>0.01996176595740398</v>
+        <v>0.02094929598958156</v>
       </c>
       <c r="J14">
-        <v>0.01996176595740398</v>
+        <v>0.02193056703236464</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N14">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O14">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P14">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q14">
-        <v>484.2091610741123</v>
+        <v>705.8061110139384</v>
       </c>
       <c r="R14">
-        <v>484.2091610741123</v>
+        <v>6352.254999125447</v>
       </c>
       <c r="S14">
-        <v>0.008964743457099163</v>
+        <v>0.01029211960764626</v>
       </c>
       <c r="T14">
-        <v>0.008964743457099163</v>
+        <v>0.01081022073740407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.98627502478317</v>
+        <v>3.592017333333333</v>
       </c>
       <c r="H15">
-        <v>2.98627502478317</v>
+        <v>10.776052</v>
       </c>
       <c r="I15">
-        <v>0.01996176595740398</v>
+        <v>0.02094929598958156</v>
       </c>
       <c r="J15">
-        <v>0.01996176595740398</v>
+        <v>0.02193056703236464</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N15">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O15">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P15">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q15">
-        <v>575.793132901245</v>
+        <v>704.6984681676583</v>
       </c>
       <c r="R15">
-        <v>575.793132901245</v>
+        <v>6342.286213508924</v>
       </c>
       <c r="S15">
-        <v>0.01066034708919727</v>
+        <v>0.01027596787351053</v>
       </c>
       <c r="T15">
-        <v>0.01066034708919727</v>
+        <v>0.01079325593151809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.98627502478317</v>
+        <v>3.592017333333333</v>
       </c>
       <c r="H16">
-        <v>2.98627502478317</v>
+        <v>10.776052</v>
       </c>
       <c r="I16">
-        <v>0.01996176595740398</v>
+        <v>0.02094929598958156</v>
       </c>
       <c r="J16">
-        <v>0.01996176595740398</v>
+        <v>0.02193056703236464</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N16">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O16">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P16">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q16">
-        <v>9.6792551960087</v>
+        <v>14.35898152948</v>
       </c>
       <c r="R16">
-        <v>9.6792551960087</v>
+        <v>86.15388917688</v>
       </c>
       <c r="S16">
-        <v>0.0001792036307110077</v>
+        <v>0.0002093837854890337</v>
       </c>
       <c r="T16">
-        <v>0.0001792036307110077</v>
+        <v>0.0001466160535929594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.5092894503254</v>
+        <v>10.42290266666667</v>
       </c>
       <c r="H17">
-        <v>7.5092894503254</v>
+        <v>31.268708</v>
       </c>
       <c r="I17">
-        <v>0.05019587187040229</v>
+        <v>0.06078825706332867</v>
       </c>
       <c r="J17">
-        <v>0.05019587187040229</v>
+        <v>0.06363559648834623</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N17">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O17">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P17">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q17">
-        <v>2.629937847725196</v>
+        <v>6.822092059510667</v>
       </c>
       <c r="R17">
-        <v>2.629937847725196</v>
+        <v>61.398828535596</v>
       </c>
       <c r="S17">
-        <v>4.869118556260295E-05</v>
+        <v>9.948027702677542E-05</v>
       </c>
       <c r="T17">
-        <v>4.869118556260295E-05</v>
+        <v>0.0001044880738539617</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.5092894503254</v>
+        <v>10.42290266666667</v>
       </c>
       <c r="H18">
-        <v>7.5092894503254</v>
+        <v>31.268708</v>
       </c>
       <c r="I18">
-        <v>0.05019587187040229</v>
+        <v>0.06078825706332867</v>
       </c>
       <c r="J18">
-        <v>0.05019587187040229</v>
+        <v>0.06363559648834623</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N18">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O18">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P18">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q18">
-        <v>18.75790165042664</v>
+        <v>27.36927775714312</v>
       </c>
       <c r="R18">
-        <v>18.75790165042664</v>
+        <v>246.323499814288</v>
       </c>
       <c r="S18">
-        <v>0.0003472874732823023</v>
+        <v>0.0003991009370076798</v>
       </c>
       <c r="T18">
-        <v>0.0003472874732823023</v>
+        <v>0.0004191915164251073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.5092894503254</v>
+        <v>10.42290266666667</v>
       </c>
       <c r="H19">
-        <v>7.5092894503254</v>
+        <v>31.268708</v>
       </c>
       <c r="I19">
-        <v>0.05019587187040229</v>
+        <v>0.06078825706332867</v>
       </c>
       <c r="J19">
-        <v>0.05019587187040229</v>
+        <v>0.06363559648834623</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N19">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O19">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P19">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q19">
-        <v>1217.592724993156</v>
+        <v>2048.026975919421</v>
       </c>
       <c r="R19">
-        <v>1217.592724993156</v>
+        <v>18432.24278327479</v>
       </c>
       <c r="S19">
-        <v>0.02254275072074326</v>
+        <v>0.02986448865619483</v>
       </c>
       <c r="T19">
-        <v>0.02254275072074326</v>
+        <v>0.03136785491137502</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.5092894503254</v>
+        <v>10.42290266666667</v>
       </c>
       <c r="H20">
-        <v>7.5092894503254</v>
+        <v>31.268708</v>
       </c>
       <c r="I20">
-        <v>0.05019587187040229</v>
+        <v>0.06078825706332867</v>
       </c>
       <c r="J20">
-        <v>0.05019587187040229</v>
+        <v>0.06363559648834623</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N20">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O20">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P20">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q20">
-        <v>1447.889850258878</v>
+        <v>2044.812945333022</v>
       </c>
       <c r="R20">
-        <v>1447.889850258878</v>
+        <v>18403.3165079972</v>
       </c>
       <c r="S20">
-        <v>0.02680651690462723</v>
+        <v>0.02981762141220011</v>
       </c>
       <c r="T20">
-        <v>0.02680651690462723</v>
+        <v>0.03131862838931243</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.5092894503254</v>
+        <v>10.42290266666667</v>
       </c>
       <c r="H21">
-        <v>7.5092894503254</v>
+        <v>31.268708</v>
       </c>
       <c r="I21">
-        <v>0.05019587187040229</v>
+        <v>0.06078825706332867</v>
       </c>
       <c r="J21">
-        <v>0.05019587187040229</v>
+        <v>0.06363559648834623</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N21">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O21">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P21">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q21">
-        <v>24.33946248325637</v>
+        <v>41.66524072292</v>
       </c>
       <c r="R21">
-        <v>24.33946248325637</v>
+        <v>249.99144433752</v>
       </c>
       <c r="S21">
-        <v>0.0004506255861868879</v>
+        <v>0.0006075657808992785</v>
       </c>
       <c r="T21">
-        <v>0.0004506255861868879</v>
+        <v>0.0004254335973796895</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.6255804017527</v>
+        <v>23.0159745</v>
       </c>
       <c r="H22">
-        <v>15.6255804017527</v>
+        <v>46.031949</v>
       </c>
       <c r="I22">
-        <v>0.1044492474202149</v>
+        <v>0.1342333339582515</v>
       </c>
       <c r="J22">
-        <v>0.1044492474202149</v>
+        <v>0.09368057459029432</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.350224593834405</v>
+        <v>0.654529</v>
       </c>
       <c r="N22">
-        <v>0.350224593834405</v>
+        <v>1.963587</v>
       </c>
       <c r="O22">
-        <v>0.0009700237041068996</v>
+        <v>0.001636504842097015</v>
       </c>
       <c r="P22">
-        <v>0.0009700237041068996</v>
+        <v>0.001641975240588762</v>
       </c>
       <c r="Q22">
-        <v>5.472462549630679</v>
+        <v>15.0646227735105</v>
       </c>
       <c r="R22">
-        <v>5.472462549630679</v>
+        <v>90.387736641063</v>
       </c>
       <c r="S22">
-        <v>0.0001013182458737349</v>
+        <v>0.0002196735009935043</v>
       </c>
       <c r="T22">
-        <v>0.0001013182458737349</v>
+        <v>0.000153821184001392</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.6255804017527</v>
+        <v>23.0159745</v>
       </c>
       <c r="H23">
-        <v>15.6255804017527</v>
+        <v>46.031949</v>
       </c>
       <c r="I23">
-        <v>0.1044492474202149</v>
+        <v>0.1342333339582515</v>
       </c>
       <c r="J23">
-        <v>0.1044492474202149</v>
+        <v>0.09368057459029432</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.49795959717784</v>
+        <v>2.625878666666667</v>
       </c>
       <c r="N23">
-        <v>2.49795959717784</v>
+        <v>7.877636000000001</v>
       </c>
       <c r="O23">
-        <v>0.006918646102590728</v>
+        <v>0.006565428197618827</v>
       </c>
       <c r="P23">
-        <v>0.006918646102590728</v>
+        <v>0.006587374670116828</v>
       </c>
       <c r="Q23">
-        <v>39.03206852603213</v>
+        <v>60.437156432094</v>
       </c>
       <c r="R23">
-        <v>39.03206852603213</v>
+        <v>362.622938592564</v>
       </c>
       <c r="S23">
-        <v>0.0007226473785824048</v>
+        <v>0.0008812993158298895</v>
       </c>
       <c r="T23">
-        <v>0.0007226473785824048</v>
+        <v>0.000617109044138095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.6255804017527</v>
+        <v>23.0159745</v>
       </c>
       <c r="H24">
-        <v>15.6255804017527</v>
+        <v>46.031949</v>
       </c>
       <c r="I24">
-        <v>0.1044492474202149</v>
+        <v>0.1342333339582515</v>
       </c>
       <c r="J24">
-        <v>0.1044492474202149</v>
+        <v>0.09368057459029432</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>162.14486510976</v>
+        <v>196.492958</v>
       </c>
       <c r="N24">
-        <v>162.14486510976</v>
+        <v>589.4788739999999</v>
       </c>
       <c r="O24">
-        <v>0.4490957100804033</v>
+        <v>0.491287135031397</v>
       </c>
       <c r="P24">
-        <v>0.4490957100804033</v>
+        <v>0.4929293766755139</v>
       </c>
       <c r="Q24">
-        <v>2533.607626503901</v>
+        <v>4522.476910757569</v>
       </c>
       <c r="R24">
-        <v>2533.607626503901</v>
+        <v>27134.86146454542</v>
       </c>
       <c r="S24">
-        <v>0.04690770893754517</v>
+        <v>0.06594711006606215</v>
       </c>
       <c r="T24">
-        <v>0.04690770893754517</v>
+        <v>0.04617790723939776</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.6255804017527</v>
+        <v>23.0159745</v>
       </c>
       <c r="H25">
-        <v>15.6255804017527</v>
+        <v>46.031949</v>
       </c>
       <c r="I25">
-        <v>0.1044492474202149</v>
+        <v>0.1342333339582515</v>
       </c>
       <c r="J25">
-        <v>0.1044492474202149</v>
+        <v>0.09368057459029432</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>192.81316292797</v>
+        <v>196.1845956666667</v>
       </c>
       <c r="N25">
-        <v>192.81316292797</v>
+        <v>588.5537870000001</v>
       </c>
       <c r="O25">
-        <v>0.5340382765705788</v>
+        <v>0.4905161432928793</v>
       </c>
       <c r="P25">
-        <v>0.5340382765705788</v>
+        <v>0.4921558077175863</v>
       </c>
       <c r="Q25">
-        <v>3012.817579847238</v>
+        <v>4515.379651156811</v>
       </c>
       <c r="R25">
-        <v>3012.817579847238</v>
+        <v>27092.27790694086</v>
       </c>
       <c r="S25">
-        <v>0.05577989608138556</v>
+        <v>0.06584361727454664</v>
       </c>
       <c r="T25">
-        <v>0.05577989608138556</v>
+        <v>0.04610543885493389</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.6255804017527</v>
+        <v>23.0159745</v>
       </c>
       <c r="H26">
-        <v>15.6255804017527</v>
+        <v>46.031949</v>
       </c>
       <c r="I26">
-        <v>0.1044492474202149</v>
+        <v>0.1342333339582515</v>
       </c>
       <c r="J26">
-        <v>0.1044492474202149</v>
+        <v>0.09368057459029432</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.24124707727196</v>
+        <v>3.99747</v>
       </c>
       <c r="N26">
-        <v>3.24124707727196</v>
+        <v>7.99494</v>
       </c>
       <c r="O26">
-        <v>0.008977343542320194</v>
+        <v>0.009994788636007805</v>
       </c>
       <c r="P26">
-        <v>0.008977343542320194</v>
+        <v>0.006685465696194116</v>
       </c>
       <c r="Q26">
-        <v>50.64636680785895</v>
+        <v>92.005667584515</v>
       </c>
       <c r="R26">
-        <v>50.64636680785895</v>
+        <v>368.02267033806</v>
       </c>
       <c r="S26">
-        <v>0.0009376767768280709</v>
+        <v>0.001341633800819373</v>
       </c>
       <c r="T26">
-        <v>0.0009376767768280709</v>
+        <v>0.0006262982678231668</v>
       </c>
     </row>
   </sheetData>
